--- a/Descargas/R15_14º Juzgado De Garantia De Santiago_Ingresos Causas Por Materia_2020-Febrero.xlsx
+++ b/Descargas/R15_14º Juzgado De Garantia De Santiago_Ingresos Causas Por Materia_2020-Febrero.xlsx
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="B57" s="65">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="58">
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="B61" s="65">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62">
